--- a/biology/Botanique/Forêt_domaniale_de_Russy/Forêt_domaniale_de_Russy.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Russy/Forêt_domaniale_de_Russy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Russy</t>
+          <t>Forêt_domaniale_de_Russy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Russy est un massif forestier qui s'étend au sud de la ville de Blois, dans le Loir-et-Cher, en France métropolitaine. Avec une superficie de 3 250 ha, elle figure parmi les forêts majeures du pays blésois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Russy</t>
+          <t>Forêt_domaniale_de_Russy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,21 +526,102 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géographie
-La forêt de Russy se tient sur le coteau de la rive gauche de la Loire, cernée entre les vals creusés par le fleuve et le Cosson au nord, et par le Beuvron au sud, formant ainsi des frontières naturelles pour la végétation.
-Flore
-Arbres
-Les essences les plus communes de la forêt de Russy sont[1] :
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Russy se tient sur le coteau de la rive gauche de la Loire, cernée entre les vals creusés par le fleuve et le Cosson au nord, et par le Beuvron au sud, formant ainsi des frontières naturelles pour la végétation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les essences les plus communes de la forêt de Russy sont :
 le charme,
 le châtaignier,
 le chêne pédonculé,
 le chêne rouvre,
 le hêtre,
 le pin sylvestre,
-le saule marsault.
-Champignons
-Tout comme la forêt de Blois présente sur la rive droite de la Loire, la forêt de Russy constitue un espace privilégié pour la cueillette de champignons en automne.
-De nombreuses espèces comestibles y ont été recensées, telles que[2] :
+le saule marsault.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme la forêt de Blois présente sur la rive droite de la Loire, la forêt de Russy constitue un espace privilégié pour la cueillette de champignons en automne.
+De nombreuses espèces comestibles y ont été recensées, telles que :
 des cèpes,
 des coulemelles,
 des girolles,
@@ -546,10 +639,47 @@
 			Russule verdoyante
 			Têtes-de-moines
 			Trompettes des morts
-Faune
-Faune recensée
-Période de chasse
-Comme les autres forêts de la région, la chasse reste toujours pratiquée au sein de la forêt de Russy, en particulier en automne et en hiver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Période de chasse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres forêts de la région, la chasse reste toujours pratiquée au sein de la forêt de Russy, en particulier en automne et en hiver.
 Puisque l’accès à la forêt peut s’avérer dangereux lors de jours de chasse, celle-ci n’est pratiquée ni tous les jours, ni sur toute la forêt en même temps. En effet, la forêt est séparée en 6 lots :
 Lot no 1 (en bleu-vert ci-contre : aux abords de Mont-près-Chambord), où la chasse est autorisée du lundi au vendredi ;
 Lot no 2 (en marron : entre Chailles et Cellettes, et aux abords de Seur et des Montils), où la chasse est autorisée le lundi uniquement ;
@@ -562,68 +692,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_domaniale_de_Russy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Russy</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, les forêts de Russy, de Boulogne et de Chambord ne formaient qu'une unique entité forestière difficilement franchissable, logée entre le haut du coteau-sud du Val de Loire et le haut du coteau-nord du val du Beuvron. La forêt de Russy est ainsi indépendante de celle de Boulogne depuis le développement urbain de la commune de Mont-près-Chambord.
-La plus ancienne trace nommant la forêt de Russy comme telle date des années 1100[3], soit au début du règne du comte Thibaut IV qui en est d’ailleurs le propriétaire. La forêt est alors plutôt bien domestiquée par les hommes, d'après les historiens.
+La plus ancienne trace nommant la forêt de Russy comme telle date des années 1100, soit au début du règne du comte Thibaut IV qui en est d’ailleurs le propriétaire. La forêt est alors plutôt bien domestiquée par les hommes, d'après les historiens.
 En 1397, à l'image du reste du comté, les droits de propriété sont transmis à la famille royale, puis définitivement intégrés aux terres du Royaume sous Henri II.
 À la fin du XVe siècle, la famille Doulcet fit construire le château de Beauregard, au nord de Cellettes. Ce-dernier est ouvert au public. Au XVIIIe siècle, le château de la Chesnaie est construit aux abords de Chailles, avec le manoir de Clénord à l'est de Cellettes, puis, en 1894, c'est au tour de celui de la Boissière, à proximité de Seur. En revanche, ceux-ci ne sont pas accessibles au public.
-En 1785, le roi Louis XVI échangea près de 1 600 Ha, soit près de la moitié de la forêt, au comte de Cormeray, en échange du comté de Sancerre[4]. Lorsque la révolution éclata en 1789, ces terrains sont légalement récupérés par les communes alentour puis, en 1790, la forêt devient domaniale et propriété de l'État.
-Entre 1886 et 1934, une ligne de tramway à vapeur traversait la forêt et reliait Blois-Vienne à Cellettes[5].
+En 1785, le roi Louis XVI échangea près de 1 600 Ha, soit près de la moitié de la forêt, au comte de Cormeray, en échange du comté de Sancerre. Lorsque la révolution éclata en 1789, ces terrains sont légalement récupérés par les communes alentour puis, en 1790, la forêt devient domaniale et propriété de l'État.
+Entre 1886 et 1934, une ligne de tramway à vapeur traversait la forêt et reliait Blois-Vienne à Cellettes.
 Depuis 2016, la forêt est coupée en deux parties hermétiques pour la faune de part et d'autre de la nouvelle route D956 (anciennement N765), inaugurée en tant que voie rapide reliant la Patte-d'Oie à Cheverny, par Clénord.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_domaniale_de_Russy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Russy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Russy</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La forêt est aujourd’hui aménagée en allées :
 d'abord en partance du carrefour de la Patte d'Oie, à Saint-Gervais-la-Forêt :
